--- a/public/excel/学生信息模版.xlsx
+++ b/public/excel/学生信息模版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seven/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D1BFE7-91FE-BD4F-84E1-B1AFCAF8BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7A3F0-8DB0-2044-9FC0-7CD755A3C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2160" windowWidth="28300" windowHeight="17440" xr2:uid="{1C97857D-29B0-324F-A881-CAB4C1E4BBC3}"/>
+    <workbookView xWindow="5000" yWindow="3120" windowWidth="28300" windowHeight="17440" xr2:uid="{1C97857D-29B0-324F-A881-CAB4C1E4BBC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号（不是必填项）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女/男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生/中学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（说明：请按右边示例填写，否则可能导致数据解析失败！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +131,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,10 +164,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,36 +506,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C422B5-56CD-2840-A088-82595BE602C2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/学生信息模版.xlsx
+++ b/public/excel/学生信息模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seven/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7A3F0-8DB0-2044-9FC0-7CD755A3C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B4B18-DABB-F04E-8280-08256BD04649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3120" windowWidth="28300" windowHeight="17440" xr2:uid="{1C97857D-29B0-324F-A881-CAB4C1E4BBC3}"/>
   </bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手机号（不是必填项）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   <si>
     <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号（非必填）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,28 +523,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -573,13 +573,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
